--- a/notebooks/portfolio_risk_metrics.xlsx
+++ b/notebooks/portfolio_risk_metrics.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.5492368857954</v>
+        <v>116.5488542616766</v>
       </c>
       <c r="C2" t="n">
-        <v>14.64115311995202</v>
+        <v>14.64111729857944</v>
       </c>
       <c r="D2" t="n">
-        <v>24.7105707390485</v>
+        <v>24.71056069614747</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5115686421591241</v>
+        <v>0.511567400433381</v>
       </c>
       <c r="F2" t="n">
-        <v>-32.61346266329289</v>
+        <v>-32.61346650596469</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.8708586474393</v>
+        <v>162.8709192349589</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6391803021907</v>
+        <v>18.63918513783673</v>
       </c>
       <c r="D3" t="n">
-        <v>18.08007328811432</v>
+        <v>18.08007261936339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9203049145342316</v>
+        <v>0.9203052160319593</v>
       </c>
       <c r="F3" t="n">
-        <v>-20.60966184631952</v>
+        <v>-20.60966793081925</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.0594049106227</v>
+        <v>134.0591252749173</v>
       </c>
       <c r="C4" t="n">
-        <v>16.22843882950864</v>
+        <v>16.22841427310171</v>
       </c>
       <c r="D4" t="n">
-        <v>21.35108692835362</v>
+        <v>21.35108089692281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6664034893049726</v>
+        <v>0.6664025274314033</v>
       </c>
       <c r="F4" t="n">
-        <v>-28.97330734102577</v>
+        <v>-28.97331228485351</v>
       </c>
     </row>
     <row r="5">
@@ -544,13 +544,13 @@
         <v>14.36948150595614</v>
       </c>
       <c r="D5" t="n">
-        <v>20.06772933329749</v>
+        <v>20.0677254614862</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6163867022778712</v>
+        <v>0.6163868212018117</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.71726233893722</v>
+        <v>-33.71726392781539</v>
       </c>
     </row>
   </sheetData>
